--- a/data/pca/factorExposure/factorExposure_2010-02-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-11.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006179617812273948</v>
+        <v>0.01702441070797577</v>
       </c>
       <c r="C2">
-        <v>0.01443186699653019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.0009404562226350341</v>
+      </c>
+      <c r="D2">
+        <v>-0.00714525893924013</v>
+      </c>
+      <c r="E2">
+        <v>0.0001197446410250837</v>
+      </c>
+      <c r="F2">
+        <v>-0.00824803837618703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03339115429300454</v>
+        <v>0.09382498477679319</v>
       </c>
       <c r="C4">
-        <v>0.1227382409313491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.01557236709891802</v>
+      </c>
+      <c r="D4">
+        <v>-0.08317564782126195</v>
+      </c>
+      <c r="E4">
+        <v>0.02799746962146115</v>
+      </c>
+      <c r="F4">
+        <v>0.03046188602978533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04391359099006693</v>
+        <v>0.1564778944476147</v>
       </c>
       <c r="C6">
-        <v>0.1088857182453254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.02489671390368105</v>
+      </c>
+      <c r="D6">
+        <v>0.02242905958327756</v>
+      </c>
+      <c r="E6">
+        <v>0.01003395536919174</v>
+      </c>
+      <c r="F6">
+        <v>0.04443329920245825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.008834956012074931</v>
+        <v>0.05976869221122874</v>
       </c>
       <c r="C7">
-        <v>0.07274030692249565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0009691055532770922</v>
+      </c>
+      <c r="D7">
+        <v>-0.0517130343873162</v>
+      </c>
+      <c r="E7">
+        <v>0.0114792966735131</v>
+      </c>
+      <c r="F7">
+        <v>0.04351745514745456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.007286271432848104</v>
+        <v>0.05852343691373636</v>
       </c>
       <c r="C8">
-        <v>0.05429813232993557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01364349763318023</v>
+      </c>
+      <c r="D8">
+        <v>-0.0318581525761987</v>
+      </c>
+      <c r="E8">
+        <v>0.0160459633412309</v>
+      </c>
+      <c r="F8">
+        <v>-0.02886996099556674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02873648515164103</v>
+        <v>0.07180021230337653</v>
       </c>
       <c r="C9">
-        <v>0.09522539649476201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.0114751404996924</v>
+      </c>
+      <c r="D9">
+        <v>-0.08430044105142585</v>
+      </c>
+      <c r="E9">
+        <v>0.02196461185792442</v>
+      </c>
+      <c r="F9">
+        <v>0.04781773509314046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.005821532911317928</v>
+        <v>0.09536726469650743</v>
       </c>
       <c r="C10">
-        <v>0.05381807572307803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.01868991039404458</v>
+      </c>
+      <c r="D10">
+        <v>0.1697560741207803</v>
+      </c>
+      <c r="E10">
+        <v>-0.03820540731891247</v>
+      </c>
+      <c r="F10">
+        <v>-0.05579296413885883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03084186242792998</v>
+        <v>0.08770269706617111</v>
       </c>
       <c r="C11">
-        <v>0.1010037398529378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01104876433442939</v>
+      </c>
+      <c r="D11">
+        <v>-0.117202491888244</v>
+      </c>
+      <c r="E11">
+        <v>0.04672170036461589</v>
+      </c>
+      <c r="F11">
+        <v>0.02202887296606149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02823718537538168</v>
+        <v>0.09233668948503046</v>
       </c>
       <c r="C12">
-        <v>0.1093254142779177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008473951153302685</v>
+      </c>
+      <c r="D12">
+        <v>-0.1287923387994076</v>
+      </c>
+      <c r="E12">
+        <v>0.04667883206089596</v>
+      </c>
+      <c r="F12">
+        <v>0.02355663270711735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008534778950447368</v>
+        <v>0.04352330973345016</v>
       </c>
       <c r="C13">
-        <v>0.04142167717838561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.003884767471790626</v>
+      </c>
+      <c r="D13">
+        <v>-0.04794443282440072</v>
+      </c>
+      <c r="E13">
+        <v>-0.01251764406033505</v>
+      </c>
+      <c r="F13">
+        <v>0.003911696856458825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0145506323886729</v>
+        <v>0.02246872216844844</v>
       </c>
       <c r="C14">
-        <v>0.02455831129673355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01393583420551549</v>
+      </c>
+      <c r="D14">
+        <v>-0.0332831761902103</v>
+      </c>
+      <c r="E14">
+        <v>0.01632508402330811</v>
+      </c>
+      <c r="F14">
+        <v>0.01566272875098652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01234502888114475</v>
+        <v>0.03111668203549404</v>
       </c>
       <c r="C15">
-        <v>0.02330026599010364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.005119862490047436</v>
+      </c>
+      <c r="D15">
+        <v>-0.0450638569827754</v>
+      </c>
+      <c r="E15">
+        <v>0.007027913287116917</v>
+      </c>
+      <c r="F15">
+        <v>0.02337053265031576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01891771590016472</v>
+        <v>0.07325621947844432</v>
       </c>
       <c r="C16">
-        <v>0.1083841098032282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.002023111349682076</v>
+      </c>
+      <c r="D16">
+        <v>-0.1261629378931253</v>
+      </c>
+      <c r="E16">
+        <v>0.0621472147932725</v>
+      </c>
+      <c r="F16">
+        <v>0.02412762283735724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02633363111486783</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.003675537080007766</v>
+      </c>
+      <c r="D18">
+        <v>-0.0215494095859186</v>
+      </c>
+      <c r="E18">
+        <v>-0.004892712012614023</v>
+      </c>
+      <c r="F18">
+        <v>-0.01307880870133662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01469987918657376</v>
+        <v>0.06001667563077896</v>
       </c>
       <c r="C20">
-        <v>0.06242933995501909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0004258508883920625</v>
+      </c>
+      <c r="D20">
+        <v>-0.07698842606641144</v>
+      </c>
+      <c r="E20">
+        <v>0.05532787095783675</v>
+      </c>
+      <c r="F20">
+        <v>0.02176606835003768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01156292997125429</v>
+        <v>0.03901949551359082</v>
       </c>
       <c r="C21">
-        <v>0.02141086274462467</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.006483716914020195</v>
+      </c>
+      <c r="D21">
+        <v>-0.03613764264566975</v>
+      </c>
+      <c r="E21">
+        <v>-0.006967515461323817</v>
+      </c>
+      <c r="F21">
+        <v>-0.02445296577713904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.002075836335842986</v>
+        <v>0.04469462895232523</v>
       </c>
       <c r="C22">
-        <v>0.03740033830583865</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0004701803355651788</v>
+      </c>
+      <c r="D22">
+        <v>-0.004071216422903212</v>
+      </c>
+      <c r="E22">
+        <v>0.02941567324663293</v>
+      </c>
+      <c r="F22">
+        <v>-0.03299044888758677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.002106042853842837</v>
+        <v>0.044727659390335</v>
       </c>
       <c r="C23">
-        <v>0.03749301612568809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0004914658133050976</v>
+      </c>
+      <c r="D23">
+        <v>-0.004177131166084638</v>
+      </c>
+      <c r="E23">
+        <v>0.02971505955076002</v>
+      </c>
+      <c r="F23">
+        <v>-0.03250465787262882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02106284194009247</v>
+        <v>0.07956404878282729</v>
       </c>
       <c r="C24">
-        <v>0.1073803292912123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.002693795157418294</v>
+      </c>
+      <c r="D24">
+        <v>-0.1203490723110829</v>
+      </c>
+      <c r="E24">
+        <v>0.05021738863672947</v>
+      </c>
+      <c r="F24">
+        <v>0.02479558999137017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02553984270178023</v>
+        <v>0.0850289052530278</v>
       </c>
       <c r="C25">
-        <v>0.1122598728031847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004904582799987331</v>
+      </c>
+      <c r="D25">
+        <v>-0.109251212550841</v>
+      </c>
+      <c r="E25">
+        <v>0.03286297798957699</v>
+      </c>
+      <c r="F25">
+        <v>0.0261622731471307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02315536752169144</v>
+        <v>0.0559834155430175</v>
       </c>
       <c r="C26">
-        <v>0.04376601730291962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01443899864217954</v>
+      </c>
+      <c r="D26">
+        <v>-0.04172164361602729</v>
+      </c>
+      <c r="E26">
+        <v>0.02690249721022082</v>
+      </c>
+      <c r="F26">
+        <v>-0.009778374493409783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.005406357018191145</v>
+        <v>0.1425364321933461</v>
       </c>
       <c r="C28">
-        <v>0.04181430031224345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.01817246732647186</v>
+      </c>
+      <c r="D28">
+        <v>0.2642882378302325</v>
+      </c>
+      <c r="E28">
+        <v>-0.07080442665468696</v>
+      </c>
+      <c r="F28">
+        <v>0.01201761935762608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01571216356889446</v>
+        <v>0.02657906591142088</v>
       </c>
       <c r="C29">
-        <v>0.02769840828422614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.008125386287864259</v>
+      </c>
+      <c r="D29">
+        <v>-0.03308282995678618</v>
+      </c>
+      <c r="E29">
+        <v>0.01071065769810275</v>
+      </c>
+      <c r="F29">
+        <v>-0.009921900825120017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02163658361541627</v>
+        <v>0.06166414030292614</v>
       </c>
       <c r="C30">
-        <v>0.1240599649286936</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.004305798570493607</v>
+      </c>
+      <c r="D30">
+        <v>-0.08619582436579154</v>
+      </c>
+      <c r="E30">
+        <v>0.02024763528186965</v>
+      </c>
+      <c r="F30">
+        <v>0.08415004739801127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02478931704134888</v>
+        <v>0.04921087322948311</v>
       </c>
       <c r="C31">
-        <v>0.03058003893212853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01507635101212589</v>
+      </c>
+      <c r="D31">
+        <v>-0.02551898587081046</v>
+      </c>
+      <c r="E31">
+        <v>0.02718239316247895</v>
+      </c>
+      <c r="F31">
+        <v>-0.002592391655373707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01094310741730063</v>
+        <v>0.04877992382219921</v>
       </c>
       <c r="C32">
-        <v>0.06074005795870547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001295094024341257</v>
+      </c>
+      <c r="D32">
+        <v>-0.03648366450168643</v>
+      </c>
+      <c r="E32">
+        <v>0.03048836340161727</v>
+      </c>
+      <c r="F32">
+        <v>-0.0007255183023865758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02739463041437376</v>
+        <v>0.08940270917839217</v>
       </c>
       <c r="C33">
-        <v>0.1112460093098431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008220956556578221</v>
+      </c>
+      <c r="D33">
+        <v>-0.09808206827167561</v>
+      </c>
+      <c r="E33">
+        <v>0.04509955132071512</v>
+      </c>
+      <c r="F33">
+        <v>0.03575924213798922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02942978065036194</v>
+        <v>0.06800555359020333</v>
       </c>
       <c r="C34">
-        <v>0.09046505940572341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0114861189285449</v>
+      </c>
+      <c r="D34">
+        <v>-0.1057021865035256</v>
+      </c>
+      <c r="E34">
+        <v>0.03468964974153984</v>
+      </c>
+      <c r="F34">
+        <v>0.03498271282003419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003392600530493546</v>
+        <v>0.02435860112347255</v>
       </c>
       <c r="C35">
-        <v>0.01415911739519421</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002366173718957781</v>
+      </c>
+      <c r="D35">
+        <v>-0.01250540343307252</v>
+      </c>
+      <c r="E35">
+        <v>0.01152641125472085</v>
+      </c>
+      <c r="F35">
+        <v>0.002011360775780013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01140041554673941</v>
+        <v>0.02494809464339168</v>
       </c>
       <c r="C36">
-        <v>0.02741330165562073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007305875786662206</v>
+      </c>
+      <c r="D36">
+        <v>-0.03973316215090276</v>
+      </c>
+      <c r="E36">
+        <v>0.01589331107773123</v>
+      </c>
+      <c r="F36">
+        <v>0.01355723390199687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008262662378023696</v>
+        <v>0.001461944153195401</v>
       </c>
       <c r="C38">
-        <v>0.00538541392094515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.0002136119126751955</v>
+      </c>
+      <c r="D38">
+        <v>-0.0007604280711072617</v>
+      </c>
+      <c r="E38">
+        <v>0.001156126725066567</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008581248526116196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04491768417417897</v>
+        <v>0.107072929256011</v>
       </c>
       <c r="C39">
-        <v>0.1662266721852278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01650025025713883</v>
+      </c>
+      <c r="D39">
+        <v>-0.1529885325170875</v>
+      </c>
+      <c r="E39">
+        <v>0.05844081921404878</v>
+      </c>
+      <c r="F39">
+        <v>0.03208776755775751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009261801204975963</v>
+        <v>0.03806517504358305</v>
       </c>
       <c r="C40">
-        <v>0.009362468332553154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.007051426613456303</v>
+      </c>
+      <c r="D40">
+        <v>-0.03287170010098311</v>
+      </c>
+      <c r="E40">
+        <v>0.002124952814447362</v>
+      </c>
+      <c r="F40">
+        <v>-0.01494667658366582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01389931235304945</v>
+        <v>0.0266578679425435</v>
       </c>
       <c r="C41">
-        <v>0.01964931854169956</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.006537071324992707</v>
+      </c>
+      <c r="D41">
+        <v>-0.01074069577251536</v>
+      </c>
+      <c r="E41">
+        <v>0.01222127217803354</v>
+      </c>
+      <c r="F41">
+        <v>-0.006249880363270056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01331745249980059</v>
+        <v>0.04004191955120507</v>
       </c>
       <c r="C43">
-        <v>0.02594693205980645</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.006558313450919742</v>
+      </c>
+      <c r="D43">
+        <v>-0.02057594088694534</v>
+      </c>
+      <c r="E43">
+        <v>0.0240324966925221</v>
+      </c>
+      <c r="F43">
+        <v>-0.01227311757053887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03925708506856448</v>
+        <v>0.07680708848554002</v>
       </c>
       <c r="C44">
-        <v>0.1333271300430866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.02081226509148006</v>
+      </c>
+      <c r="D44">
+        <v>-0.09882898259714243</v>
+      </c>
+      <c r="E44">
+        <v>0.06744984611539195</v>
+      </c>
+      <c r="F44">
+        <v>0.1601244106458995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004453172741743031</v>
+        <v>0.02372556552015834</v>
       </c>
       <c r="C46">
-        <v>0.01205406548120567</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.003764673697255121</v>
+      </c>
+      <c r="D46">
+        <v>-0.01277932314585627</v>
+      </c>
+      <c r="E46">
+        <v>0.0223159416681252</v>
+      </c>
+      <c r="F46">
+        <v>-0.002989133898437087</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01608624656394133</v>
+        <v>0.05075829615535817</v>
       </c>
       <c r="C47">
-        <v>0.04283256026551192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.003331851080887036</v>
+      </c>
+      <c r="D47">
+        <v>-0.0133947840313898</v>
+      </c>
+      <c r="E47">
+        <v>0.02296498925434367</v>
+      </c>
+      <c r="F47">
+        <v>-0.03451351659742535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01379577577633745</v>
+        <v>0.04821156150319218</v>
       </c>
       <c r="C48">
-        <v>0.04560337229777684</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.002491521471744616</v>
+      </c>
+      <c r="D48">
+        <v>-0.0508873942201876</v>
+      </c>
+      <c r="E48">
+        <v>-0.005803501973060825</v>
+      </c>
+      <c r="F48">
+        <v>0.006259473617308542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04283216077254234</v>
+        <v>0.2025979790122348</v>
       </c>
       <c r="C49">
-        <v>0.2110786461545306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01810074115116066</v>
+      </c>
+      <c r="D49">
+        <v>0.01194659090018567</v>
+      </c>
+      <c r="E49">
+        <v>0.03099410556975597</v>
+      </c>
+      <c r="F49">
+        <v>0.03073367038318577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02061870448217362</v>
+        <v>0.04921529184875909</v>
       </c>
       <c r="C50">
-        <v>0.03989186447985123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01114509090711258</v>
+      </c>
+      <c r="D50">
+        <v>-0.02495418772820785</v>
+      </c>
+      <c r="E50">
+        <v>0.02935071684327621</v>
+      </c>
+      <c r="F50">
+        <v>0.00883142577092088</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.001123025764678939</v>
+        <v>0.0022393597937216</v>
       </c>
       <c r="C51">
-        <v>0.007654145528038617</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0005703322639500851</v>
+      </c>
+      <c r="D51">
+        <v>0.002400571559732254</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001932235627407944</v>
+      </c>
+      <c r="F51">
+        <v>0.003612740841550614</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03434095596351024</v>
+        <v>0.1448621596627485</v>
       </c>
       <c r="C52">
-        <v>0.1378515808440339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.0141538762879944</v>
+      </c>
+      <c r="D52">
+        <v>-0.04870718054918393</v>
+      </c>
+      <c r="E52">
+        <v>0.02193431839367127</v>
+      </c>
+      <c r="F52">
+        <v>0.04315633283030176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03432709259869701</v>
+        <v>0.1733668299671312</v>
       </c>
       <c r="C53">
-        <v>0.1551680631367961</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01748033388843806</v>
+      </c>
+      <c r="D53">
+        <v>-0.006860859424667535</v>
+      </c>
+      <c r="E53">
+        <v>0.03179064725383517</v>
+      </c>
+      <c r="F53">
+        <v>0.07466002513868208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01444950508513146</v>
+        <v>0.02207811742025053</v>
       </c>
       <c r="C54">
-        <v>0.05013367160353969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01240349625419058</v>
+      </c>
+      <c r="D54">
+        <v>-0.03263306561729581</v>
+      </c>
+      <c r="E54">
+        <v>0.01538530669626083</v>
+      </c>
+      <c r="F54">
+        <v>-0.002046644625439876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02642018833170388</v>
+        <v>0.1142014967775332</v>
       </c>
       <c r="C55">
-        <v>0.0879566879980296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01578518021395488</v>
+      </c>
+      <c r="D55">
+        <v>-0.01026725155076685</v>
+      </c>
+      <c r="E55">
+        <v>0.02838924961625437</v>
+      </c>
+      <c r="F55">
+        <v>0.04860328375294008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03856453821644727</v>
+        <v>0.1773182892454553</v>
       </c>
       <c r="C56">
-        <v>0.1559561190166518</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.01478354255989955</v>
+      </c>
+      <c r="D56">
+        <v>-0.004596919640823339</v>
+      </c>
+      <c r="E56">
+        <v>0.03890103741198649</v>
+      </c>
+      <c r="F56">
+        <v>0.05254559200812915</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01423801056618572</v>
+        <v>0.0466704721859818</v>
       </c>
       <c r="C58">
-        <v>0.0411690153170309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001125330794521971</v>
+      </c>
+      <c r="D58">
+        <v>-0.0670933587931206</v>
+      </c>
+      <c r="E58">
+        <v>0.02677129523137258</v>
+      </c>
+      <c r="F58">
+        <v>-0.03872257653682382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01346602936004716</v>
+        <v>0.1714839095717545</v>
       </c>
       <c r="C59">
-        <v>0.1080992083159418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.01862459647781832</v>
+      </c>
+      <c r="D59">
+        <v>0.2215917268192213</v>
+      </c>
+      <c r="E59">
+        <v>-0.04772774353008517</v>
+      </c>
+      <c r="F59">
+        <v>-0.03059553697612518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.04013928149691681</v>
+        <v>0.2346868645202468</v>
       </c>
       <c r="C60">
-        <v>0.273734523324658</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.003600831747064949</v>
+      </c>
+      <c r="D60">
+        <v>-0.04031899022082916</v>
+      </c>
+      <c r="E60">
+        <v>0.01150665092721063</v>
+      </c>
+      <c r="F60">
+        <v>-0.006925539415966052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03159252353044906</v>
+        <v>0.08291839357981476</v>
       </c>
       <c r="C61">
-        <v>0.1238941152297855</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01230314405204585</v>
+      </c>
+      <c r="D61">
+        <v>-0.1163306669133905</v>
+      </c>
+      <c r="E61">
+        <v>0.03903726881659017</v>
+      </c>
+      <c r="F61">
+        <v>0.01338217443375725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04257968404659133</v>
+        <v>0.1693445585825351</v>
       </c>
       <c r="C62">
-        <v>0.1636632185630003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.01842003948168773</v>
+      </c>
+      <c r="D62">
+        <v>-0.01003635451802057</v>
+      </c>
+      <c r="E62">
+        <v>0.03605388488667405</v>
+      </c>
+      <c r="F62">
+        <v>0.03649666930174993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01337066603139867</v>
+        <v>0.0434137500365513</v>
       </c>
       <c r="C63">
-        <v>0.05461333072802451</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002415735202549073</v>
+      </c>
+      <c r="D63">
+        <v>-0.05696870839257123</v>
+      </c>
+      <c r="E63">
+        <v>0.02031239959163225</v>
+      </c>
+      <c r="F63">
+        <v>0.006065556496967574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02532482315160005</v>
+        <v>0.11044703993094</v>
       </c>
       <c r="C64">
-        <v>0.09659946898667546</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01129771929268241</v>
+      </c>
+      <c r="D64">
+        <v>-0.04211118081950279</v>
+      </c>
+      <c r="E64">
+        <v>0.02107013354096203</v>
+      </c>
+      <c r="F64">
+        <v>0.02586290638582594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04642304476663893</v>
+        <v>0.14741594527462</v>
       </c>
       <c r="C65">
-        <v>0.1091340523572723</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03162697693967611</v>
+      </c>
+      <c r="D65">
+        <v>0.04148533185755488</v>
+      </c>
+      <c r="E65">
+        <v>0.0008967235091376796</v>
+      </c>
+      <c r="F65">
+        <v>0.03638157839716474</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04504088938033999</v>
+        <v>0.1276814684380421</v>
       </c>
       <c r="C66">
-        <v>0.1959511638073943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01433590590267821</v>
+      </c>
+      <c r="D66">
+        <v>-0.1422163338528959</v>
+      </c>
+      <c r="E66">
+        <v>0.06682787494474925</v>
+      </c>
+      <c r="F66">
+        <v>0.03375038915856815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01578795282064143</v>
+        <v>0.06323872927188946</v>
       </c>
       <c r="C67">
-        <v>0.0711799608460798</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.002801609036163041</v>
+      </c>
+      <c r="D67">
+        <v>-0.05587591029609491</v>
+      </c>
+      <c r="E67">
+        <v>0.01778581124829807</v>
+      </c>
+      <c r="F67">
+        <v>-0.03434808430878718</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01636655484102996</v>
+        <v>0.1172265076514189</v>
       </c>
       <c r="C68">
-        <v>0.03941276620671921</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.0281454181871922</v>
+      </c>
+      <c r="D68">
+        <v>0.2593043547282164</v>
+      </c>
+      <c r="E68">
+        <v>-0.08752904132736815</v>
+      </c>
+      <c r="F68">
+        <v>0.01072820176464137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.009722089928645065</v>
+        <v>0.03916196028078728</v>
       </c>
       <c r="C69">
-        <v>0.03218711909570707</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.0009272679924165934</v>
+      </c>
+      <c r="D69">
+        <v>-0.008286069914178738</v>
+      </c>
+      <c r="E69">
+        <v>0.02363511464893397</v>
+      </c>
+      <c r="F69">
+        <v>-0.00292385392393097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001094851691355438</v>
+        <v>0.06277392678591474</v>
       </c>
       <c r="C70">
-        <v>0.03434129585020675</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02874671066253087</v>
+      </c>
+      <c r="D70">
+        <v>-0.02907448620945846</v>
+      </c>
+      <c r="E70">
+        <v>-0.04326176754817476</v>
+      </c>
+      <c r="F70">
+        <v>-0.2001430192480224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02072530624187773</v>
+        <v>0.1365296938971361</v>
       </c>
       <c r="C71">
-        <v>0.0470673518277199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.03279578482403539</v>
+      </c>
+      <c r="D71">
+        <v>0.2731578777695776</v>
+      </c>
+      <c r="E71">
+        <v>-0.09723119011943912</v>
+      </c>
+      <c r="F71">
+        <v>0.01394955057032355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.04022659090381749</v>
+        <v>0.1417302242754139</v>
       </c>
       <c r="C72">
-        <v>0.1225962944614593</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.02528699724464746</v>
+      </c>
+      <c r="D72">
+        <v>-0.0007145288827269268</v>
+      </c>
+      <c r="E72">
+        <v>0.03976178729474757</v>
+      </c>
+      <c r="F72">
+        <v>0.03591150097550221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04411225566652092</v>
+        <v>0.2009760657907916</v>
       </c>
       <c r="C73">
-        <v>0.2107615452040448</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01203712179907095</v>
+      </c>
+      <c r="D73">
+        <v>-0.01582526516129258</v>
+      </c>
+      <c r="E73">
+        <v>0.06426786154764316</v>
+      </c>
+      <c r="F73">
+        <v>0.03331521037715175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02511026829103004</v>
+        <v>0.09445003249205533</v>
       </c>
       <c r="C74">
-        <v>0.1124591631289751</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01249034553747478</v>
+      </c>
+      <c r="D74">
+        <v>-0.01895050827247983</v>
+      </c>
+      <c r="E74">
+        <v>0.04616180692094787</v>
+      </c>
+      <c r="F74">
+        <v>0.05524907297130142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04754859163411933</v>
+        <v>0.1284240083745096</v>
       </c>
       <c r="C75">
-        <v>0.1316725711025614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02688056878053638</v>
+      </c>
+      <c r="D75">
+        <v>-0.03222098658457474</v>
+      </c>
+      <c r="E75">
+        <v>0.06008496616513727</v>
+      </c>
+      <c r="F75">
+        <v>0.01944243261435257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.001168050669703393</v>
+        <v>0.00245219306541724</v>
       </c>
       <c r="C76">
-        <v>0.00941500466882755</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.0006321244906669599</v>
+      </c>
+      <c r="D76">
+        <v>0.001836996258103841</v>
+      </c>
+      <c r="E76">
+        <v>0.0001097329220913146</v>
+      </c>
+      <c r="F76">
+        <v>0.003410002775206379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02660488091310984</v>
+        <v>0.08028858357114541</v>
       </c>
       <c r="C77">
-        <v>0.0962621462665692</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.008179463979867864</v>
+      </c>
+      <c r="D77">
+        <v>-0.1192420887936676</v>
+      </c>
+      <c r="E77">
+        <v>0.04176809275702687</v>
+      </c>
+      <c r="F77">
+        <v>0.0257300334796732</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06365148012076294</v>
+        <v>0.1032115645415412</v>
       </c>
       <c r="C78">
-        <v>0.1102696163558606</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03955809738486449</v>
+      </c>
+      <c r="D78">
+        <v>-0.1148000464066281</v>
+      </c>
+      <c r="E78">
+        <v>0.07791809037253146</v>
+      </c>
+      <c r="F78">
+        <v>0.05159448330753613</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04183330489073903</v>
+        <v>0.1640223132708599</v>
       </c>
       <c r="C79">
-        <v>0.1409803373364689</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02098563860216889</v>
+      </c>
+      <c r="D79">
+        <v>-0.01872172407430807</v>
+      </c>
+      <c r="E79">
+        <v>0.04885011441254594</v>
+      </c>
+      <c r="F79">
+        <v>0.01304414403749398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.005761681805862446</v>
+        <v>0.0809637674858463</v>
       </c>
       <c r="C80">
-        <v>0.09278548655616911</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.001120325892490299</v>
+      </c>
+      <c r="D80">
+        <v>-0.0576013941997522</v>
+      </c>
+      <c r="E80">
+        <v>0.03666685771030321</v>
+      </c>
+      <c r="F80">
+        <v>-0.02663821006580464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04659246533983395</v>
+        <v>0.1228093897058706</v>
       </c>
       <c r="C81">
-        <v>0.1522155288474228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03090059666899469</v>
+      </c>
+      <c r="D81">
+        <v>-0.01690339844548939</v>
+      </c>
+      <c r="E81">
+        <v>0.05938150047652654</v>
+      </c>
+      <c r="F81">
+        <v>0.01616034524075891</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04140549091567297</v>
+        <v>0.1646224393670788</v>
       </c>
       <c r="C82">
-        <v>0.171096566043623</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.02325168645899052</v>
+      </c>
+      <c r="D82">
+        <v>-0.006885575790680882</v>
+      </c>
+      <c r="E82">
+        <v>0.02988622084258237</v>
+      </c>
+      <c r="F82">
+        <v>0.07940757580547853</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0168050858774174</v>
+        <v>0.06151165138632067</v>
       </c>
       <c r="C83">
-        <v>0.07942833455515062</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.003154803891087557</v>
+      </c>
+      <c r="D83">
+        <v>-0.04936341354694281</v>
+      </c>
+      <c r="E83">
+        <v>0.00556416065446771</v>
+      </c>
+      <c r="F83">
+        <v>-0.03381297438748741</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02529846144738909</v>
+        <v>0.05837067318449762</v>
       </c>
       <c r="C84">
-        <v>0.06969095699599108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01087877855528135</v>
+      </c>
+      <c r="D84">
+        <v>-0.06537484808778667</v>
+      </c>
+      <c r="E84">
+        <v>0.006645502682396582</v>
+      </c>
+      <c r="F84">
+        <v>0.008680417558470934</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04172742381451918</v>
+        <v>0.1379739952819612</v>
       </c>
       <c r="C85">
-        <v>0.117099601035432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.02674478580318482</v>
+      </c>
+      <c r="D85">
+        <v>-0.01213153190526964</v>
+      </c>
+      <c r="E85">
+        <v>0.0394873954749642</v>
+      </c>
+      <c r="F85">
+        <v>0.04782787190560046</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02196513431780901</v>
+        <v>0.09713038216883357</v>
       </c>
       <c r="C86">
-        <v>0.1031768231427241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.00644976785912873</v>
+      </c>
+      <c r="D86">
+        <v>-0.03845553019934749</v>
+      </c>
+      <c r="E86">
+        <v>0.2036254977317168</v>
+      </c>
+      <c r="F86">
+        <v>-0.9047062181894228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04643626034731658</v>
+        <v>0.09581266689315163</v>
       </c>
       <c r="C87">
-        <v>0.1091187414937376</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02168706248669753</v>
+      </c>
+      <c r="D87">
+        <v>-0.09169543207966525</v>
+      </c>
+      <c r="E87">
+        <v>-0.05321407775768796</v>
+      </c>
+      <c r="F87">
+        <v>0.05748124038100431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01502072594007737</v>
+        <v>0.06080231812951997</v>
       </c>
       <c r="C88">
-        <v>0.05233188245508216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.00240643329502116</v>
+      </c>
+      <c r="D88">
+        <v>-0.05046441951777224</v>
+      </c>
+      <c r="E88">
+        <v>0.02507446952846515</v>
+      </c>
+      <c r="F88">
+        <v>0.01327714050125475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002805560564542163</v>
+        <v>0.1349514305839337</v>
       </c>
       <c r="C89">
-        <v>0.08072323932060592</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.01031078988437089</v>
+      </c>
+      <c r="D89">
+        <v>0.2513060619759351</v>
+      </c>
+      <c r="E89">
+        <v>-0.0899781674967676</v>
+      </c>
+      <c r="F89">
+        <v>-0.0009178378770764723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02024332069530883</v>
+        <v>0.1484717451701658</v>
       </c>
       <c r="C90">
-        <v>0.05135466744151707</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.0285796665538966</v>
+      </c>
+      <c r="D90">
+        <v>0.2655932611123326</v>
+      </c>
+      <c r="E90">
+        <v>-0.1112801419617847</v>
+      </c>
+      <c r="F90">
+        <v>0.0002587160826727511</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02496945531789662</v>
+        <v>0.1195552652360561</v>
       </c>
       <c r="C91">
-        <v>0.09229370360146913</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01744107270594837</v>
+      </c>
+      <c r="D91">
+        <v>0.0102829921099155</v>
+      </c>
+      <c r="E91">
+        <v>0.05692587337140162</v>
+      </c>
+      <c r="F91">
+        <v>-0.004366237859485238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001375107931651738</v>
+        <v>0.1484416980411376</v>
       </c>
       <c r="C92">
-        <v>0.07134524437912601</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.02058661915452048</v>
+      </c>
+      <c r="D92">
+        <v>0.2914985106741697</v>
+      </c>
+      <c r="E92">
+        <v>-0.1035041968988707</v>
+      </c>
+      <c r="F92">
+        <v>-0.009903888078998498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01487315607033998</v>
+        <v>0.1516433071128254</v>
       </c>
       <c r="C93">
-        <v>0.05818689540307036</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.02463356947779965</v>
+      </c>
+      <c r="D93">
+        <v>0.2653686180251417</v>
+      </c>
+      <c r="E93">
+        <v>-0.07854732904597725</v>
+      </c>
+      <c r="F93">
+        <v>0.006438157964206266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04858413299343863</v>
+        <v>0.1318474667022361</v>
       </c>
       <c r="C94">
-        <v>0.1556772266751803</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02396072602483985</v>
+      </c>
+      <c r="D94">
+        <v>-0.04425812648815533</v>
+      </c>
+      <c r="E94">
+        <v>0.05883580931509879</v>
+      </c>
+      <c r="F94">
+        <v>0.03692088306277679</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03988158220466356</v>
+        <v>0.1257336683719633</v>
       </c>
       <c r="C95">
-        <v>0.1286994331075252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.004395886395574117</v>
+      </c>
+      <c r="D95">
+        <v>-0.09269676044614736</v>
+      </c>
+      <c r="E95">
+        <v>0.04862210808122759</v>
+      </c>
+      <c r="F95">
+        <v>-0.01168146648271869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9676310644189134</v>
+        <v>0.1007558074657033</v>
       </c>
       <c r="C96">
-        <v>0.2334888301309261</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9884289021280271</v>
+      </c>
+      <c r="D96">
+        <v>0.03893647538565252</v>
+      </c>
+      <c r="E96">
+        <v>0.05615214840571813</v>
+      </c>
+      <c r="F96">
+        <v>0.04369724598160044</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01706968760779958</v>
+        <v>0.1900628237664805</v>
       </c>
       <c r="C97">
-        <v>0.1758334971983804</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009615540361588064</v>
+      </c>
+      <c r="D97">
+        <v>0.01722070217914078</v>
+      </c>
+      <c r="E97">
+        <v>0.01573579459544581</v>
+      </c>
+      <c r="F97">
+        <v>-0.09613288355192511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03618151668988378</v>
+        <v>0.2063288957295714</v>
       </c>
       <c r="C98">
-        <v>0.2071429669817344</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.007274630625306948</v>
+      </c>
+      <c r="D98">
+        <v>-0.006294717098731987</v>
+      </c>
+      <c r="E98">
+        <v>-0.08849650283120712</v>
+      </c>
+      <c r="F98">
+        <v>-0.09638153602735959</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003463675844323475</v>
+        <v>0.05576846513938168</v>
       </c>
       <c r="C99">
-        <v>0.05203514466576034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.004556138089409177</v>
+      </c>
+      <c r="D99">
+        <v>-0.03772903182130765</v>
+      </c>
+      <c r="E99">
+        <v>0.02326298567232173</v>
+      </c>
+      <c r="F99">
+        <v>8.968177723435093e-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.003002634089978202</v>
+        <v>0.1239967416868748</v>
       </c>
       <c r="C100">
-        <v>0.1386670142246111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.05312475323606011</v>
+      </c>
+      <c r="D100">
+        <v>-0.3495699483746311</v>
+      </c>
+      <c r="E100">
+        <v>-0.8882605457877519</v>
+      </c>
+      <c r="F100">
+        <v>-0.1292710277971654</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01574332172216395</v>
+        <v>0.02650216449491709</v>
       </c>
       <c r="C101">
-        <v>0.02763763845958966</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.008133097135947908</v>
+      </c>
+      <c r="D101">
+        <v>-0.03279037918837114</v>
+      </c>
+      <c r="E101">
+        <v>0.01015060046035532</v>
+      </c>
+      <c r="F101">
+        <v>-0.01125379056570699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
